--- a/BIO247Project/BIO247ProjectArticles/CCDC15path.xlsx
+++ b/BIO247Project/BIO247ProjectArticles/CCDC15path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e56c0a1657867c1/Desktop/BIO247/BIO247Project/BIO247ProjectArticles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DCF5F7C-81C0-4776-8D05-6316EF9A25A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0DCF5F7C-81C0-4776-8D05-6316EF9A25A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E076A4CF-AA9D-4ABD-B6C9-71D50AB2EC22}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C5D14AA-AFF9-41DB-A384-6531019E1381}"/>
   </bookViews>
@@ -41,12 +41,6 @@
     <t>pathways</t>
   </si>
   <si>
-    <t>TCGA-ACC [miRNA vs RNA] GO: protein-DNA complex assembly [2040008631]</t>
-  </si>
-  <si>
-    <t>TCGA-THYM [miRNA vs RNA] GO: neutrophil migration [2040000740]</t>
-  </si>
-  <si>
     <t>melanoma gene regulatory network derived from single-cell RNA-seq</t>
   </si>
   <si>
@@ -77,12 +71,6 @@
     <t>ConsensusPathDB</t>
   </si>
   <si>
-    <t>BioPlex 2.0 ( ~ 56,000 interactions )</t>
-  </si>
-  <si>
-    <t>GeneMANIA,</t>
-  </si>
-  <si>
     <t>STRING - Interactions from only text-mined sources removed</t>
   </si>
   <si>
@@ -201,6 +189,18 @@
   </si>
   <si>
     <t>GeneHancer Associations</t>
+  </si>
+  <si>
+    <t>TCGA-ACC [miRNA vs RNA] GO: protein-DNA complex assembly</t>
+  </si>
+  <si>
+    <t>TCGA-THYM [miRNA vs RNA] GO: neutrophil migration</t>
+  </si>
+  <si>
+    <t>BioPlex 2.0 ( ~ 56 000 interactions )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneMANIA </t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:A56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,272 +570,272 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
